--- a/documents/ER And Normalization/Normalization.xlsx
+++ b/documents/ER And Normalization/Normalization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT GIT\hospital_management\First_Evalution\ER And Normalization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT GIT\online_hospital_management_system\documents\ER And Normalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2882B20D-A482-4048-9E85-F66A5C99D28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7243F-0654-44C0-A802-156D53735585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -829,9 +829,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5337BC-AD13-432C-8AEB-ED89B7F58E76}">
   <dimension ref="B1:AS26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D10" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -3649,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E9E61E-D011-4BAC-88CC-CC55EF2FB29B}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,21 +3861,23 @@
       <c r="E30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>34</v>
+      <c r="G30" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E31" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E32" s="17" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
@@ -3973,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FBD24D-7E02-4A88-8192-75947D399EB1}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,8 +4073,8 @@
       <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>160</v>
+      <c r="E13" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>39</v>
@@ -4086,7 +4085,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>40</v>
@@ -4097,35 +4096,37 @@
         <v>24</v>
       </c>
       <c r="E15" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E17" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="17" t="s">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="21" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="21" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4136,23 +4137,20 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="20"/>
-      <c r="E24" s="19" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>147</v>
-      </c>
+      <c r="E26" s="20"/>
       <c r="G26" s="19" t="s">
         <v>155</v>
       </c>
@@ -4161,8 +4159,8 @@
       <c r="C27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>169</v>
+      <c r="E27" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -4170,7 +4168,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>171</v>
@@ -4182,7 +4180,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>180</v>
@@ -4192,11 +4190,11 @@
       <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>34</v>
+      <c r="E30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -4204,35 +4202,37 @@
         <v>22</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E32" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E33" s="17" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E34" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="36"/>
+      <c r="E35" s="17" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="20"/>
+      <c r="E36" s="17" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
@@ -4251,14 +4251,14 @@
       <c r="C39" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>166</v>
       </c>
+      <c r="E40" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="G40" s="16" t="s">
         <v>182</v>
       </c>
@@ -4267,16 +4267,13 @@
       <c r="C41" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>178</v>
-      </c>
       <c r="G41" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="17" t="s">
-        <v>25</v>
+      <c r="E42" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>150</v>
@@ -4284,7 +4281,7 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E43" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>151</v>
@@ -4292,7 +4289,7 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E44" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>176</v>
@@ -4300,7 +4297,7 @@
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E45" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>178</v>
@@ -4308,16 +4305,21 @@
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E46" s="17" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E47" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E48" s="22" t="s">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="22" t="s">
         <v>147</v>
       </c>
     </row>

--- a/documents/ER And Normalization/Normalization.xlsx
+++ b/documents/ER And Normalization/Normalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT GIT\online_hospital_management_system\documents\ER And Normalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7243F-0654-44C0-A802-156D53735585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3704661E-18C3-45A7-9A1A-CF27A55D4A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3646,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E9E61E-D011-4BAC-88CC-CC55EF2FB29B}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,15 +3828,15 @@
         <v>14</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>27</v>
+      <c r="E28" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>171</v>
@@ -3848,7 +3848,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>154</v>
@@ -3858,8 +3858,8 @@
       <c r="C30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>33</v>
+      <c r="E30" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>175</v>
@@ -3867,16 +3867,6 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E31" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3887,6 +3877,9 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="20"/>
+      <c r="E35" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="16" t="s">
@@ -3900,14 +3893,17 @@
       <c r="C37" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>50</v>
+      <c r="E37" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
         <v>166</v>
       </c>
+      <c r="E38" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="G38" s="16" t="s">
         <v>182</v>
       </c>
@@ -3916,8 +3912,8 @@
       <c r="C39" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>178</v>
+      <c r="E39" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>183</v>
@@ -3925,7 +3921,7 @@
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E40" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>150</v>
@@ -3974,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FBD24D-7E02-4A88-8192-75947D399EB1}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,37 +4198,31 @@
         <v>22</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E32" s="17" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E33" s="17" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E34" s="17" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="20"/>
-      <c r="E36" s="17" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
@@ -4243,6 +4233,9 @@
       <c r="C38" s="22" t="s">
         <v>172</v>
       </c>
+      <c r="E38" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="G38" s="19" t="s">
         <v>53</v>
       </c>
@@ -4256,8 +4249,8 @@
       <c r="C40" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>50</v>
+      <c r="E40" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>182</v>
@@ -4267,13 +4260,16 @@
       <c r="C41" s="17" t="s">
         <v>167</v>
       </c>
+      <c r="E41" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="G41" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="16" t="s">
-        <v>178</v>
+      <c r="E42" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>150</v>
@@ -4281,7 +4277,7 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E43" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>151</v>
@@ -4289,7 +4285,7 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E44" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>176</v>
